--- a/data/trans_dic/iP30KDA8_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30KDA8_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>31,13%</t>
+          <t>41,65%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>42,47%</t>
+          <t>29,95%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>37,0%</t>
+          <t>35,88%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,98; 42,77</t>
+          <t>30,56; 52,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,69; 53,96</t>
+          <t>19,78; 41,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,29; 45,73</t>
+          <t>28,13; 43,83</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>52,14%</t>
+          <t>46,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>47,68%</t>
+          <t>51,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>50,02%</t>
+          <t>48,98%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>45,7; 58,33</t>
+          <t>40,5; 53,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>41,38; 54,09</t>
+          <t>45,18; 57,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,1; 54,3</t>
+          <t>44,61; 53,71</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>42,25%</t>
+          <t>45,6%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>46,55%</t>
+          <t>41,12%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>44,25%</t>
+          <t>43,13%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>36,26; 48,84</t>
+          <t>39,22; 52,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,91; 53,58</t>
+          <t>34,43; 47,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39,73; 48,96</t>
+          <t>38,28; 48,0</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>47,42%</t>
+          <t>39,95%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>45,39%</t>
+          <t>45,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>46,46%</t>
+          <t>43,07%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,99; 53,18</t>
+          <t>27,29; 47,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,6; 51,61</t>
+          <t>38,78; 51,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>42,1; 50,61</t>
+          <t>36,94; 48,27</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>46,11%</t>
+          <t>43,19%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>46,07%</t>
+          <t>44,82%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>46,09%</t>
+          <t>44,06%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42,93; 49,79</t>
+          <t>36,96; 47,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>42,21; 49,49</t>
+          <t>41,01; 48,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,62; 48,78</t>
+          <t>40,58; 46,69</t>
         </is>
       </c>
     </row>
